--- a/data/hanzo-cloud/hanzo-auth-client_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-auth-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="169">
   <si>
     <t>Class Name</t>
   </si>
@@ -378,52 +378,52 @@
     <t>hanZoSecurityParamConfig</t>
   </si>
   <si>
+    <t>SecurityParamConfig</t>
+  </si>
+  <si>
+    <t>accessDeniedHandler</t>
+  </si>
+  <si>
     <t>exceptionEntryPoint</t>
   </si>
   <si>
-    <t>SecurityParamConfig</t>
-  </si>
-  <si>
     <t>tokenStore</t>
   </si>
   <si>
-    <t>accessDeniedHandler</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>fileName</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
     <t>logger</t>
   </si>
   <si>
     <t>org.apache.commons.logging.Log</t>
   </si>
   <si>
+    <t>onlyFetchByGateway</t>
+  </si>
+  <si>
     <t>enable</t>
   </si>
   <si>
+    <t>jwtSigningKey</t>
+  </si>
+  <si>
     <t>authUri</t>
   </si>
   <si>
-    <t>onlyFetchByGateway</t>
-  </si>
-  <si>
     <t>anonUris</t>
-  </si>
-  <si>
-    <t>jwtSigningKey</t>
   </si>
   <si>
     <t>AUTH_LENGTH</t>
@@ -3279,7 +3279,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3356,21 +3356,21 @@
         <v>32</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
@@ -3378,10 +3378,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -3389,51 +3389,51 @@
         <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>157</v>
@@ -3444,7 +3444,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>157</v>
@@ -3455,7 +3455,7 @@
         <v>65</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>157</v>
@@ -3466,7 +3466,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>157</v>
@@ -3477,7 +3477,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>157</v>
@@ -3488,7 +3488,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>157</v>
@@ -3499,7 +3499,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>157</v>
@@ -3510,7 +3510,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>157</v>
@@ -3521,7 +3521,7 @@
         <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>157</v>
@@ -3532,10 +3532,10 @@
         <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>157</v>
@@ -3554,10 +3554,10 @@
         <v>65</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
@@ -3565,7 +3565,7 @@
         <v>65</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>157</v>
@@ -3573,24 +3573,24 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29">
@@ -3598,10 +3598,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -3609,10 +3609,10 @@
         <v>79</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31">
@@ -3620,7 +3620,7 @@
         <v>79</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>156</v>
@@ -3628,24 +3628,24 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
@@ -3653,10 +3653,10 @@
         <v>89</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
@@ -3664,10 +3664,10 @@
         <v>89</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
@@ -3675,40 +3675,40 @@
         <v>89</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>153</v>
@@ -3716,24 +3716,24 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42">
@@ -3741,10 +3741,10 @@
         <v>99</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43">
@@ -3752,7 +3752,7 @@
         <v>99</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>157</v>
@@ -3763,7 +3763,7 @@
         <v>99</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>157</v>
@@ -3774,42 +3774,9 @@
         <v>99</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C48" t="s" s="0">
         <v>157</v>
       </c>
     </row>
@@ -3892,7 +3859,7 @@
         <v>81</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -3906,7 +3873,7 @@
         <v>81</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -3920,7 +3887,7 @@
         <v>81</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>102</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -3934,7 +3901,7 @@
         <v>81</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -4032,7 +3999,7 @@
         <v>81</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -4046,7 +4013,7 @@
         <v>81</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
